--- a/test.xlsx
+++ b/test.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yi\Downloads\python-3.12.4-embed-amd64\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B6A3B2-CA16-4B58-8C67-BB450728AE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51837A0E-39AB-4DFD-8D60-7E30A167ED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="1" xr2:uid="{E762AAD1-4CE0-44AF-9576-71AC54350B67}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{E762AAD1-4CE0-44AF-9576-71AC54350B67}"/>
   </bookViews>
   <sheets>
     <sheet name="playlist1" sheetId="1" r:id="rId1"/>
     <sheet name="playlist2" sheetId="2" r:id="rId2"/>
+    <sheet name="playlist3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>16.mp3</t>
   </si>
@@ -82,6 +83,10 @@
   </si>
   <si>
     <t>30.mp3</t>
+  </si>
+  <si>
+    <t>播放間隔秒數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,85 +470,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EBF697-2178-43F2-BEFA-F5C713E3EB75}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -556,87 +567,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2823FCF-906A-46AB-B3C0-39FDBC8CB1C9}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A60FFCF-5844-44AA-BE19-3373D3851E48}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yi\Downloads\python-3.12.4-embed-amd64\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51837A0E-39AB-4DFD-8D60-7E30A167ED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ECB938-81CE-404D-9636-498A4E7FD99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{E762AAD1-4CE0-44AF-9576-71AC54350B67}"/>
+    <workbookView xWindow="6410" yWindow="990" windowWidth="19200" windowHeight="10510" activeTab="3" xr2:uid="{E762AAD1-4CE0-44AF-9576-71AC54350B67}"/>
   </bookViews>
   <sheets>
     <sheet name="playlist1" sheetId="1" r:id="rId1"/>
     <sheet name="playlist2" sheetId="2" r:id="rId2"/>
     <sheet name="playlist3" sheetId="3" r:id="rId3"/>
+    <sheet name="playlist4" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>16.mp3</t>
   </si>
@@ -86,6 +87,22 @@
   </si>
   <si>
     <t>播放間隔秒數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +587,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="F1:G1"/>
+      <selection activeCell="A11" sqref="A4:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -666,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A60FFCF-5844-44AA-BE19-3373D3851E48}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -696,4 +713,155 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B376B5-D2F5-4FEE-B7D0-14F7E56D1217}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>